--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2192445.412675082</v>
+        <v>2296625.047126154</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9528400.985994419</v>
+        <v>9528400.985994421</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>205.5146946421457</v>
       </c>
       <c r="V2" t="n">
-        <v>262.9161535118012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>144.5212688564318</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.49905836424245</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -950,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>184.1481152416526</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>274.3393327866108</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>53.1992054069342</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>77.31354443380459</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>312.3150588154489</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>265.2378569961676</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>30.96371788671194</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>11.51529853319953</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.0874140756654</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>232.696128939274</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>14.19454216862647</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.56584948763727</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>96.99837838564459</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.07916359105462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>132.4116178914862</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>147.6895341487369</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>47.88058113793399</v>
       </c>
       <c r="H31" t="n">
-        <v>41.16673120696654</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>10.74993283584316</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4334,7 +4336,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4361,19 +4363,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>3118.015220960539</v>
       </c>
       <c r="V2" t="n">
-        <v>2806.503472648865</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.73481737875</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2412.295295330571</v>
+        <v>2076.537039225833</v>
       </c>
       <c r="C4" t="n">
-        <v>2243.359112402664</v>
+        <v>1930.555959572871</v>
       </c>
       <c r="D4" t="n">
-        <v>2093.242472990328</v>
+        <v>1780.439320160536</v>
       </c>
       <c r="E4" t="n">
-        <v>1945.329379407935</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="F4" t="n">
-        <v>1798.439431910025</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G4" t="n">
-        <v>1630.736595284744</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>1484.519408502601</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
         <v>1464.823389952862</v>
@@ -4525,13 +4527,13 @@
         <v>2814.736339304341</v>
       </c>
       <c r="W4" t="n">
-        <v>2814.736339304341</v>
+        <v>2525.31916926738</v>
       </c>
       <c r="X4" t="n">
-        <v>2814.736339304341</v>
+        <v>2297.329618369363</v>
       </c>
       <c r="Y4" t="n">
-        <v>2593.943760160811</v>
+        <v>2076.537039225833</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4565,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2823.329208306698</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2823.329208306698</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2470.560553036583</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2097.094794775503</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686082</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064757</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080136</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986308</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995014</v>
+        <v>363.7915515140957</v>
       </c>
       <c r="C7" t="n">
-        <v>294.7232451715945</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592588</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>144.6066057592588</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>144.6066057592588</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>144.6066057592588</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6066057592588</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2291.674678112794</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176916</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y8" t="n">
-        <v>2678.274518176916</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.620154033273</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
         <v>626.3436713194226</v>
@@ -4951,13 +4953,13 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1502.210433804846</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1247.525945598959</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>958.1087755619981</v>
       </c>
       <c r="X10" t="n">
-        <v>839.2686188635128</v>
+        <v>958.1087755619981</v>
       </c>
       <c r="Y10" t="n">
-        <v>839.2686188635128</v>
+        <v>958.1087755619981</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,19 +5062,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,16 +5132,16 @@
         <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1194.219129208753</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.9279362553159</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1809.460189369951</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1554.775701164064</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.358531127103</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1037.368980229086</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.5764010855556</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,58 +5503,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,22 +5746,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,16 +5770,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>2978.516248701935</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>2809.580065774028</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>2659.463426361692</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>2659.463426361692</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>2659.463426361692</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3118.738694571971</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C25" t="n">
-        <v>2949.802511644064</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D25" t="n">
-        <v>2799.685872231729</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.772778649336</v>
+        <v>598.2542540370698</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151425</v>
+        <v>451.3643065391594</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4582.346174342408</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>4293.270947686606</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>4038.586459480719</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>3749.169289443758</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>3521.179738545741</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>3300.387159402211</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958739</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C28" t="n">
-        <v>633.992644467967</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180517</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="D31" t="n">
-        <v>449.485266605716</v>
+        <v>2674.652733893667</v>
       </c>
       <c r="E31" t="n">
-        <v>449.485266605716</v>
+        <v>2674.652733893667</v>
       </c>
       <c r="F31" t="n">
-        <v>302.5953191078056</v>
+        <v>2527.762786395757</v>
       </c>
       <c r="G31" t="n">
-        <v>135.3992198226856</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6716,28 +6718,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,19 +7022,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>962.6357307816191</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>793.6995478537123</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>643.5829084413765</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>495.6698148589834</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.284195611859</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,22 +7192,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612593</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7731,22 +7733,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>49.43558426092557</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>53.48834544997013</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.5151132204107</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>68.52575990662426</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5054897610402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>33.11252040078261</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516635</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9259388694754307</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219412</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>117.6435571543349</v>
       </c>
       <c r="H31" t="n">
-        <v>99.12798163925731</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>134.6711151870881</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675045</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,7 +26435,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26454,7 +26456,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914301.14573898</v>
+        <v>-914301.1457389798</v>
       </c>
       <c r="C6" t="n">
         <v>414443.5999886129</v>
       </c>
       <c r="D6" t="n">
-        <v>414443.5999886129</v>
+        <v>414443.5999886128</v>
       </c>
       <c r="E6" t="n">
-        <v>164608.2060593868</v>
+        <v>164608.2060593869</v>
       </c>
       <c r="F6" t="n">
         <v>490020.6678667423</v>
       </c>
       <c r="G6" t="n">
-        <v>490020.6678667419</v>
+        <v>490020.6678667421</v>
       </c>
       <c r="H6" t="n">
-        <v>490020.6678667421</v>
+        <v>490020.6678667424</v>
       </c>
       <c r="I6" t="n">
-        <v>490020.6678667417</v>
+        <v>490020.6678667423</v>
       </c>
       <c r="J6" t="n">
-        <v>272489.4654694647</v>
+        <v>272489.4654694648</v>
       </c>
       <c r="K6" t="n">
-        <v>490020.6678667419</v>
+        <v>490020.6678667422</v>
       </c>
       <c r="L6" t="n">
-        <v>490020.6678667421</v>
+        <v>490020.6678667422</v>
       </c>
       <c r="M6" t="n">
-        <v>404965.6399312304</v>
+        <v>404965.6399312305</v>
       </c>
       <c r="N6" t="n">
-        <v>490020.6678667421</v>
+        <v>490020.6678667423</v>
       </c>
       <c r="O6" t="n">
-        <v>490020.6678667423</v>
+        <v>490020.6678667424</v>
       </c>
       <c r="P6" t="n">
         <v>490020.6678667423</v>
@@ -26790,46 +26792,46 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>45.48047731675624</v>
       </c>
       <c r="V2" t="n">
-        <v>64.83610495833375</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.72555224219604</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>76.85336204559565</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>66.84705671724942</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>111.8986058694427</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>114.0476156916936</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19.03887597603349</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>52.95783295555867</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>84.00311172124543</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>136.2831032119159</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>274.6965396724133</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30517,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>316.2462973459351</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159423</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.2645232599136</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
